--- a/data_rag/Belgium_districts.xlsx
+++ b/data_rag/Belgium_districts.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{C17D9D5C-66C4-B546-97D3-397DD01F2CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CBDFADA-FE95-A34B-9FD8-72AED225BDA4}"/>
   <bookViews>
-    <workbookView xWindow="15860" yWindow="760" windowWidth="14380" windowHeight="18880" firstSheet="4" activeTab="7" xr2:uid="{7496BC6B-6F6C-D149-9D79-7D7B1ED37CE4}"/>
+    <workbookView xWindow="15860" yWindow="760" windowWidth="14380" windowHeight="18880" firstSheet="8" activeTab="11" xr2:uid="{7496BC6B-6F6C-D149-9D79-7D7B1ED37CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Provinces" sheetId="1" r:id="rId1"/>
@@ -3870,8 +3870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8B0F5C-2A01-2745-B8A4-70C1DEA66D67}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8076,7 +8076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282B64E9-754E-7D46-8762-AF987A2425FF}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -10011,7 +10011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928F9367-FC2C-014F-9978-F9EC6C1597EA}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
